--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,103 +22,157 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>550008</t>
+  </si>
+  <si>
+    <t>040002</t>
+  </si>
+  <si>
+    <t>550001</t>
+  </si>
+  <si>
+    <t>006209</t>
+  </si>
+  <si>
+    <t>006392</t>
+  </si>
+  <si>
     <t>003803</t>
   </si>
   <si>
+    <t>002244</t>
+  </si>
+  <si>
     <t>003804</t>
   </si>
   <si>
-    <t>006209</t>
-  </si>
-  <si>
-    <t>006392</t>
-  </si>
-  <si>
-    <t>040002</t>
-  </si>
-  <si>
-    <t>550001</t>
-  </si>
-  <si>
-    <t>550008</t>
-  </si>
-  <si>
-    <t>002244</t>
+    <t>信诚优胜精选混合</t>
+  </si>
+  <si>
+    <t>华安MSCI中国A股指数增强</t>
+  </si>
+  <si>
+    <t>信诚四季红混合</t>
+  </si>
+  <si>
+    <t>中信保诚新蓝筹灵活配置混合</t>
+  </si>
+  <si>
+    <t>中信保诚创新成长灵活配置混合</t>
   </si>
   <si>
     <t>华安新丰利灵活配置混合A</t>
   </si>
   <si>
+    <t>景顺长城低碳科技主题灵活配置混合</t>
+  </si>
+  <si>
     <t>华安新丰利灵活配置混合C</t>
   </si>
   <si>
-    <t>中信保诚新蓝筹灵活配置混合</t>
-  </si>
-  <si>
-    <t>中信保诚创新成长灵活配置混合</t>
-  </si>
-  <si>
-    <t>华安MSCI中国A股指数增强</t>
-  </si>
-  <si>
-    <t>信诚四季红混合</t>
-  </si>
-  <si>
-    <t>信诚优胜精选混合</t>
-  </si>
-  <si>
-    <t>景顺长城低碳科技主题灵活配置混合</t>
+    <t>30.38</t>
+  </si>
+  <si>
+    <t>20.04</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>6.76</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>81.69</t>
+  </si>
+  <si>
+    <t>93.91</t>
+  </si>
+  <si>
+    <t>87.55</t>
+  </si>
+  <si>
+    <t>83.91</t>
+  </si>
+  <si>
+    <t>81.65</t>
   </si>
   <si>
     <t>21.50</t>
   </si>
   <si>
-    <t>83.91</t>
-  </si>
-  <si>
-    <t>81.65</t>
-  </si>
-  <si>
-    <t>93.91</t>
-  </si>
-  <si>
-    <t>87.55</t>
-  </si>
-  <si>
-    <t>81.69</t>
-  </si>
-  <si>
     <t>93.71</t>
   </si>
   <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
     <t>0.66</t>
   </si>
   <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>2.66</t>
-  </si>
-  <si>
     <t>4.53</t>
+  </si>
+  <si>
+    <t>0.8081</t>
+  </si>
+  <si>
+    <t>0.4369</t>
+  </si>
+  <si>
+    <t>0.2243</t>
+  </si>
+  <si>
+    <t>0.0706</t>
+  </si>
+  <si>
+    <t>0.0674</t>
+  </si>
+  <si>
+    <t>0.0446</t>
+  </si>
+  <si>
+    <t>0.0367</t>
+  </si>
+  <si>
+    <t>0.0015</t>
   </si>
 </sst>
 </file>
@@ -476,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,165 +552,219 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2486</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1926</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9857</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8097</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5128</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2018,4 +2019,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.36</v>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.44</v>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2987</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2090,13 +2155,1085 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0182</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8524</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2865</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.08</v>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9778</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.36</v>
+          <t>160106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方高增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8696</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.44</v>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3227,13 +3314,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160105</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方积极配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3851,7 +3852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,17 +3863,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3882,14 +3903,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.78</v>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3898,14 +3941,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.08</v>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3914,14 +3979,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.36</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3930,14 +4017,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.44</v>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3946,13 +4055,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>550008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信诚优胜精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8081</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安MSCI中国A股指数增强</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4369</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2243</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.08</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006392</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信保诚创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0674</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D6" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003803</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安新丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.76</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003804</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安新丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+      <c r="D7" t="n">
+        <v>1.69</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -816,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -867,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040002</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安MSCI中国A股指数增强</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.60</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>92.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4342</t>
+          <t>0.2519</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -905,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>014189</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>南方专精特新混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.40</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.20</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3680</t>
+          <t>0.1113</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -943,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006392</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信保诚创新成长灵活配置混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.23</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>7.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2615</t>
+          <t>0.0634</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -981,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>009956</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>广发恒誉混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2146</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1019,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>200010</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城双动力混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.40</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1057,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>达诚成长先锋混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1095,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003803</t>
+          <t>011097</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合A</t>
+          <t>达诚宜创精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>87.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0466</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1133,36 +905,340 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003804</t>
+          <t>010808</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安新丰利灵活配置混合C</t>
+          <t>达诚策略先锋混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.33</t>
+          <t>87.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0424</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1273,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1227,36 +1303,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>57.51</t>
+          <t>50.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.31</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2486</t>
+          <t>0.9778</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1265,36 +1341,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.51</t>
+          <t>20.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.07</t>
+          <t>87.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1926</t>
+          <t>0.8696</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1303,36 +1379,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>010385</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>华安汇嘉精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.41</t>
+          <t>25.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.95</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5474</t>
+          <t>0.4898</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1341,36 +1417,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001694</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安沪港深外延增长灵活配置混合</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.61</t>
+          <t>16.06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.23</t>
+          <t>74.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5370</t>
+          <t>0.4256</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1379,36 +1455,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040035</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安逆向策略混合</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>58.97</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.20</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2207</t>
+          <t>0.3732</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1417,36 +1493,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>000124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>华宝服务优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.29</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9929</t>
+          <t>0.1791</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1455,36 +1531,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010385</t>
+          <t>014189</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合A</t>
+          <t>南方专精特新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.08</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>75.65</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9857</t>
+          <t>0.0973</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1493,36 +1569,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>010386</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>华安汇嘉精选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.83</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>85.93</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.8097</t>
+          <t>0.0735</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1531,36 +1607,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>88.18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5128</t>
+          <t>0.0541</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1569,36 +1645,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006392</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信保诚创新成长灵活配置混合</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4782</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1607,36 +1683,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>010808</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>达诚策略先锋混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19.24</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>77.18</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4464</t>
+          <t>0.0481</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1645,36 +1721,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>009956</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>广发恒誉混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.54</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3128</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1683,36 +1759,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005738</t>
+          <t>011030</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长城智能产业灵活配置混合</t>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>80.83</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2636</t>
+          <t>0.0332</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1721,36 +1797,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006769</t>
+          <t>010809</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长城研究精选混合</t>
+          <t>达诚策略先锋混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>80.66</t>
+          <t>84.86</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1909</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1759,36 +1835,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010602</t>
+          <t>014190</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长城均衡优选混合</t>
+          <t>南方专精特新混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.13</t>
+          <t>30.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1361</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1797,36 +1873,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010386</t>
+          <t>011031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合C</t>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.65</t>
+          <t>80.83</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1332</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1835,188 +1911,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>582003</t>
+          <t>009957</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东吴配置优化灵活配置混合</t>
+          <t>广发恒誉混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0899</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>012051</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>63.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0839</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000554</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方中国梦灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0402</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3150,7 +3074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3171,7 +3095,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3201,36 +3125,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50.40</t>
+          <t>57.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>76.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9778</t>
+          <t>2.2486</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3239,36 +3163,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.27</t>
+          <t>56.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>77.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8696</t>
+          <t>2.1926</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3277,36 +3201,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010385</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合A</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.38</t>
+          <t>51.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.93</t>
+          <t>85.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4898</t>
+          <t>1.5474</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3315,36 +3239,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040001</t>
+          <t>001694</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安创新混合</t>
+          <t>华安沪港深外延增长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>74.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.45</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4256</t>
+          <t>1.5370</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3353,36 +3277,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>040035</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>华安逆向策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>58.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>77.20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3732</t>
+          <t>1.2207</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3391,36 +3315,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000124</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华宝服务优选混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>87.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1791</t>
+          <t>0.9929</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3429,36 +3353,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014189</t>
+          <t>010385</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方专精特新混合A</t>
+          <t>华安汇嘉精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>35.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>30.05</t>
+          <t>75.65</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0973</t>
+          <t>0.9857</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3467,36 +3391,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010386</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安汇嘉精选混合C</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>18.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.93</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0735</t>
+          <t>0.8097</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3505,36 +3429,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.5128</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3543,36 +3467,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>006392</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>中信保诚创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>17.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0499</t>
+          <t>0.4782</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3581,36 +3505,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010808</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合A</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>19.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>77.18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0481</t>
+          <t>0.4464</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -3619,36 +3543,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009956</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发恒誉混合A</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>82.54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.3128</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -3657,36 +3581,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011030</t>
+          <t>005738</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+          <t>长城智能产业灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>80.83</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0332</t>
+          <t>0.2636</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3695,36 +3619,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010809</t>
+          <t>006769</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合C</t>
+          <t>长城研究精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>84.86</t>
+          <t>80.66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.1909</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3733,36 +3657,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>014190</t>
+          <t>010602</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方专精特新混合C</t>
+          <t>长城均衡优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30.05</t>
+          <t>81.13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.1361</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3771,36 +3695,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011031</t>
+          <t>010386</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+          <t>华安汇嘉精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.83</t>
+          <t>75.65</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.1332</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -3809,36 +3733,188 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009957</t>
+          <t>582003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发恒誉混合C</t>
+          <t>东吴配置优化灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0899</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000554</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中国梦灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3873,7 +3949,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3903,36 +3979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>040002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>华安MSCI中国A股指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2519</t>
+          <t>0.4342</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3941,32 +4017,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014189</t>
+          <t>040001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方专精特新混合A</t>
+          <t>华安创新混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>18.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>76.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1113</t>
+          <t>0.3680</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3979,36 +4055,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>006392</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>中信保诚创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>86.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0634</t>
+          <t>0.2615</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4017,36 +4093,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009956</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发恒誉混合A</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29.31</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.2146</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4055,32 +4131,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>200010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>长城双动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>88.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0541</t>
+          <t>0.0582</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4093,36 +4169,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010301</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>达诚成长先锋混合A</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -4131,36 +4207,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011097</t>
+          <t>003803</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>达诚宜创精选混合A</t>
+          <t>华安新丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0466</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -4169,340 +4245,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010808</t>
+          <t>003804</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合A</t>
+          <t>华安新丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.36</t>
+          <t>21.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0424</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014190</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方专精特新混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011030</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010809</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>达诚策略先锋混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.36</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010302</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>达诚成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011031</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011098</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>达诚宜创精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>015060</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏节能环保股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009957</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发恒誉混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4516,128 +4288,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.78</v>
+          <t>040002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安MSCI中国A股指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.08</v>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.36</v>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.44</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.69</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>3.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>18.08</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>14.36</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1246,7 +1699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1948,7 +2401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3068,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3922,7 +4375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4282,7 +4735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/601208-东材科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>3.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>18.08</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>14.36</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>1.44</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>8</v>
       </c>
       <c r="D8" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -600,6 +617,820 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6357</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012710</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>017290</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧科创主题混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2401,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3521,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4375,7 +5206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4735,7 +5566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
